--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3218-2022</t>
+          <t>A 26588-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44582</v>
+        <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3218-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Gul lammticka
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,17 +1478,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,10 +1563,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1597,31 +1597,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,14 +1713,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45007</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,16 +1733,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1767,31 +1767,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>10.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45208</v>
+        <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.8</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44582</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45771</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45148</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>44913</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45209</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2928,13 +2928,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3028,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45833</v>
+        <v>44582</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3080,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45845</v>
+        <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3104,8 +3099,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45936</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>46037.44622685185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>46037.4490625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44913</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44582</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45936</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>46037.44622685185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>46037.4490625</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44913</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44582</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26588-2025</t>
+          <t>A 48988-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45807.76052083333</v>
+        <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1083,290 +1083,290 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 3218-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Gul lammticka
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3218-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Gul lammticka
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45007</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,16 +1478,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,31 +1512,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,14 +1713,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,31 +1733,31 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1767,31 +1767,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44582</v>
+        <v>45208</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45833</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45208</v>
+        <v>45845</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10.8</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45833</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45845</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>44582</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>44582</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45148</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45771</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44913</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>45148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3023,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44582</v>
+        <v>44913</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 48988-2025</t>
+          <t>A 26588-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45936</v>
+        <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1083,290 +1083,290 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Blodvaxing
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 49131-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45937.8984375</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Jättemusseron
 Svartvit taggsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 3218-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44582</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>1.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gul lammticka
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,17 +1563,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45148</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45007</v>
+        <v>45148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,16 +1733,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45208</v>
+        <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45833</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45209</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2187,8 +2187,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2230,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45845</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2250,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2287,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45208</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2307,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>10.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2344,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2364,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2401,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45833</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2421,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2458,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44582</v>
+        <v>45845</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2478,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2515,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44582</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2535,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2572,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2592,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2629,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2649,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2686,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45771</v>
+        <v>45148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2706,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2743,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2763,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2800,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2820,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2857,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2877,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2914,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45148</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2934,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2971,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>44913</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3028,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44913</v>
+        <v>45771</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3048,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45209</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3099,13 +3104,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>44582</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26588-2025</t>
+          <t>A 3218-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45807.76052083333</v>
+        <v>44582</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Gul lammticka
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 48988-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45936</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Blodvaxing
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 49131-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45937.8984375</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>0.9</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Jättemusseron
 Svartvit taggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3218-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Gul lammticka
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45007</v>
+        <v>45148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,17 +1648,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45148</v>
+        <v>45671</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44582</v>
+        <v>45208</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45209</v>
+        <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2187,13 +2187,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2230,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2250,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2287,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45208</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2344,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2364,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2401,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45833</v>
+        <v>45771</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2458,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45845</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2478,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2515,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45833</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2535,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2572,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>44913</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2592,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2629,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>45845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2649,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2693,7 +2688,7 @@
         <v>45148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2743,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2800,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2857,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2914,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44913</v>
+        <v>45209</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2990,8 +2985,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3028,14 +3028,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45771</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44582</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3218-2022</t>
+          <t>A 26588-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44582</v>
+        <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3218-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Gul lammticka
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,31 +1478,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45148</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45007</v>
+        <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,16 +1648,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45208</v>
+        <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44582</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45771</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45833</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44913</v>
+        <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45845</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45148</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>44913</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45771</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>44582</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44582</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45209</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2985,13 +2985,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3028,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3080,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3104,8 +3099,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45936</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45845</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45845</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45148</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44913</v>
+        <v>45148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45771</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44582</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>44913</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45771</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>44582</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45936</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45007</v>
+        <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,16 +1478,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,17 +1563,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45148</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45845</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>45148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44913</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>45771</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44582</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 26588-2025</t>
+          <t>A 48988-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45807.76052083333</v>
+        <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.1</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1083,204 +1083,204 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45007</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1682,31 +1682,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>45148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1798,14 +1798,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45007</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,31 +1818,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44582</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45208</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45833</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45208</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10.8</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45833</v>
+        <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45845</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45148</v>
+        <v>44582</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44913</v>
+        <v>45771</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45771</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44582</v>
+        <v>45148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3080,14 +3080,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45209</v>
+        <v>44913</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3099,13 +3099,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3137,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45209</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,8 +3156,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26588-2025</t>
+          <t>A 3218-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45807.76052083333</v>
+        <v>44582</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1221,19 +1221,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1245,128 +1245,128 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Gul lammticka
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar
 Nattviol</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3218-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Gul lammticka
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45671</v>
+        <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,17 +1478,17 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,31 +1512,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45148</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45007</v>
+        <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,16 +1818,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45208</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45833</v>
+        <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45833</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44582</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44582</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>44913</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2909,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45771</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45148</v>
+        <v>45209</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3042,8 +3042,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44913</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3100,7 +3105,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3137,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45209</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3156,13 +3161,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44582</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45833</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45876.39396990741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>46037.44622685185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>46037.4490625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44913</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45209</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>44582</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45007</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45208</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45833</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45876.39396990741</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>45148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>46037.44622685185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>46037.4490625</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44913</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44582</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45209</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 48988-2025</t>
+          <t>A 3218-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45936</v>
+        <v>44582</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,214 +1073,214 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Gul lammticka
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Blodvaxing
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 49131-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45937.8984375</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Jättemusseron
 Svartvit taggsvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 3218-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Gul lammticka
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45007</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,16 +1478,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,17 +1563,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,31 +1597,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,14 +1713,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,10 +1733,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1767,31 +1767,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44582</v>
+        <v>45208</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>10.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45208</v>
+        <v>44582</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10.8</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45833</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45845</v>
+        <v>44582</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>45771</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2510,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45148</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>44913</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>45209</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2700,8 +2700,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2743,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2763,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2800,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44913</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2820,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2857,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2877,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2916,7 +2921,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2966,14 +2971,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44582</v>
+        <v>45833</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3028,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45209</v>
+        <v>45845</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3042,13 +3047,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3085,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3218-2022</t>
+          <t>A 48988-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44582</v>
+        <v>45936</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3218-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Gul lammticka
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45671</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,31 +1512,31 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
         <v>45007</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1628,14 +1628,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45148</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45208</v>
+        <v>44582</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>10.8</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44582</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45208</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44582</v>
+        <v>45833</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45845</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45771</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2624,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44913</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45209</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2700,13 +2700,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2743,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>44913</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2800,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2857,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45771</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2914,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>44582</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45833</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3028,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45845</v>
+        <v>46037.44622685185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3080,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>45209</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3104,8 +3099,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 48988-2025</t>
+          <t>A 3218-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45936</v>
+        <v>44582</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Gul lammticka
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 26588-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45807.76052083333</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Blodvaxing
 Ängsvaxskivling</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H8" t="n">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Jättemusseron
 Svartvit taggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3218-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44582</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Gul lammticka
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1458,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 52545-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45671</v>
+        <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1512,45 +1512,45 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45007</v>
+        <v>45671</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,45 +1597,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 35953-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1682,45 +1682,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vanlig groda</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35953-2023</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45148</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vanlig groda</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 35953-2023 artfynd.xlsx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 35953-2023 karta.png", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 35953-2023 FSC-klagomål.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 35953-2023 FSC-klagomål mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 35953-2023 tillsynsbegäran.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 35953-2023 tillsynsbegäran mail.docx", "A 35953-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 52545-2024</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45609.63619212963</v>
+        <v>45007</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,31 +1818,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 52545-2024 artfynd.xlsx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 52545-2024 karta.png", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 52545-2024 FSC-klagomål.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 52545-2024 FSC-klagomål mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 52545-2024 tillsynsbegäran.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 52545-2024 tillsynsbegäran mail.docx", "A 52545-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44582</v>
+        <v>44913</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2244,8 +2244,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>10.8</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2282,14 +2287,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45833</v>
+        <v>45208</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2302,7 +2307,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2339,14 +2344,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45845</v>
+        <v>44582</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2359,7 +2364,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2396,14 +2401,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2416,7 +2421,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2453,14 +2458,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2473,7 +2478,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2510,14 +2515,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 3222-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>44582</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2530,7 +2535,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2567,14 +2572,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45148</v>
+        <v>45771</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2587,7 +2592,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2624,14 +2629,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2644,7 +2649,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2681,14 +2686,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2701,7 +2706,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2738,14 +2743,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44913</v>
+        <v>45148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2758,7 +2763,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2795,14 +2800,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>45833</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2815,7 +2820,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2852,14 +2857,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45771</v>
+        <v>45845</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,7 +2877,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2909,14 +2914,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3222-2022</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44582</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2929,7 +2934,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2966,14 +2971,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2986,7 +2991,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3023,14 +3028,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46037.44622685185</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3043,7 +3048,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3080,14 +3085,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45209</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3099,13 +3104,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3142,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>46037</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,14 +1029,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 3218-2022</t>
+          <t>A 26588-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44582</v>
+        <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1049,19 +1049,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1073,300 +1073,300 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>2</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 48988-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45936</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Blodvaxing
+Ängsvaxskivling</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 49131-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45937.8984375</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Jättemusseron
+Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3218-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>EKERÖ</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Gul lammticka
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 3218-2022 artfynd.xlsx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 3218-2022 karta.png", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 3218-2022 FSC-klagomål.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 3218-2022 FSC-klagomål mail.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 3218-2022 tillsynsbegäran.docx", "A 3218-2022")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 3218-2022 tillsynsbegäran mail.docx", "A 3218-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 26588-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45807.76052083333</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 26588-2025 artfynd.xlsx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 26588-2025 karta.png", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 26588-2025 FSC-klagomål.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 26588-2025 FSC-klagomål mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 26588-2025 tillsynsbegäran.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 26588-2025 tillsynsbegäran mail.docx", "A 26588-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 48988-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45936</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blodvaxing
-Ängsvaxskivling</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 48988-2025 artfynd.xlsx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 48988-2025 karta.png", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 48988-2025 FSC-klagomål.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 48988-2025 FSC-klagomål mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 48988-2025 tillsynsbegäran.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 48988-2025 tillsynsbegäran mail.docx", "A 48988-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49131-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45937.8984375</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>EKERÖ</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Jättemusseron
-Svartvit taggsvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49131-2025 artfynd.xlsx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49131-2025 karta.png", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49131-2025 FSC-klagomål.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49131-2025 FSC-klagomål mail.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49131-2025 tillsynsbegäran.docx", "A 49131-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49131-2025 tillsynsbegäran mail.docx", "A 49131-2025")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1543,14 +1543,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 1793-2025</t>
+          <t>A 49128-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45671</v>
+        <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1597,31 +1597,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Mistel</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
         <v/>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1713,14 +1713,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49128-2025</t>
+          <t>A 13794-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45937.8944675926</v>
+        <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1733,17 +1733,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1767,45 +1767,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 49128-2025 artfynd.xlsx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 49128-2025 karta.png", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 49128-2025 FSC-klagomål.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 49128-2025 FSC-klagomål mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 49128-2025 tillsynsbegäran.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 49128-2025 tillsynsbegäran mail.docx", "A 49128-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 13794-2023</t>
+          <t>A 1793-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45007</v>
+        <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1818,16 +1818,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1852,31 +1852,31 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mistel</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 13794-2023 artfynd.xlsx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/artfynd/A 1793-2025 artfynd.xlsx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 13794-2023 karta.png", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/kartor/A 1793-2025 karta.png", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 13794-2023 FSC-klagomål.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomål/A 1793-2025 FSC-klagomål.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 13794-2023 FSC-klagomål mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/klagomålsmail/A 1793-2025 FSC-klagomål mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 13794-2023 tillsynsbegäran.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsyn/A 1793-2025 tillsynsbegäran.docx", "A 1793-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 13794-2023 tillsynsbegäran mail.docx", "A 13794-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0125/tillsynsmail/A 1793-2025 tillsynsbegäran mail.docx", "A 1793-2025")</f>
         <v/>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2054,14 +2054,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 60728-2022</t>
+          <t>A 26600-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44913</v>
+        <v>45808.54792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2111,14 +2111,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 56002-2024</t>
+          <t>A 50184-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45623.7328587963</v>
+        <v>45208</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2168,14 +2168,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 61217-2024</t>
+          <t>A 31607-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45645.65825231482</v>
+        <v>45833</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2225,14 +2225,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 48839-2023</t>
+          <t>A 56002-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45209</v>
+        <v>45623.7328587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2244,13 +2244,8 @@
           <t>EKERÖ</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2287,14 +2282,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 50184-2023</t>
+          <t>A 34073-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45208</v>
+        <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2302,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10.8</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2344,14 +2339,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 3219-2022</t>
+          <t>A 35047-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44582</v>
+        <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2364,7 +2359,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2401,14 +2396,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 3221-2022</t>
+          <t>A 61217-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44582.80788194444</v>
+        <v>45645.65825231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2421,7 +2416,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2458,14 +2453,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 60755-2024</t>
+          <t>A 37245-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45644.56945601852</v>
+        <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2478,7 +2473,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2522,7 +2517,7 @@
         <v>44582</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2572,14 +2567,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 19935-2025</t>
+          <t>A 3219-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45771</v>
+        <v>44582</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2592,7 +2587,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2629,14 +2624,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 55724-2024</t>
+          <t>A 3221-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45622.81020833334</v>
+        <v>44582.80788194444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2686,14 +2681,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 26600-2025</t>
+          <t>A 60755-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45808.54792824074</v>
+        <v>45644.56945601852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2706,7 +2701,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2743,14 +2738,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35955-2023</t>
+          <t>A 19935-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45148</v>
+        <v>45771</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2763,7 +2758,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2800,14 +2795,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31607-2025</t>
+          <t>A 55724-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45833</v>
+        <v>45622.81020833334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2820,7 +2815,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2857,14 +2852,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34073-2025</t>
+          <t>A 35955-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45845</v>
+        <v>45148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2877,7 +2872,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2914,14 +2909,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35047-2025</t>
+          <t>A 63378-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45852.35094907408</v>
+        <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2934,7 +2929,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2971,14 +2966,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 37245-2025</t>
+          <t>A 2533-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45876.39396990741</v>
+        <v>46037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2991,7 +2986,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3028,14 +3023,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63378-2025</t>
+          <t>A 2535-2026</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>46010.72528935185</v>
+        <v>46037.4490625</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3048,7 +3043,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3085,14 +3080,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2535-2026</t>
+          <t>A 60728-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>46037.4490625</v>
+        <v>44913</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3105,7 +3100,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3142,14 +3137,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2533-2026</t>
+          <t>A 48839-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46037</v>
+        <v>45209</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,8 +3156,13 @@
           <t>EKERÖ</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>

--- a/Översikt EKERÖ.xlsx
+++ b/Översikt EKERÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45937.89643518518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44974</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>44872</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>44634</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
         <v>45002</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         <v>45807.76052083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>45936</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1208,7 +1208,7 @@
         <v>45937.8984375</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>44582</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>44646</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45609.63619212963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>45937.8944675926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         <v>45148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45671</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>44361</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44670</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44802</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45808.54792824074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>45208</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>45833</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>45623.7328587963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>45845</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45852.35094907408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>45645.65825231482</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>45876.39396990741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44582</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44582</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44582.80788194444</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>45644.56945601852</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>45771</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>45622.81020833334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>45148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>46010.72528935185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>46037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>46037.4490625</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44913</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45209</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
